--- a/thesis/summary/graph/SummaryGraphLightStay.xlsx
+++ b/thesis/summary/graph/SummaryGraphLightStay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Reserch\ver_19-7-5\summary\graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Research\thesis\summary\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B792C-FB9A-437A-BFD3-59D0DD9B6925}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3E10E-FD28-4E08-8D16-2F509CDCD8EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7B1C90B6-2679-4B99-85DA-C70A49D6CD9D}"/>
   </bookViews>
@@ -5130,6 +5130,468 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>全点灯</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3257936507936508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51746031746031751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56726190476190474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56369047619047619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56679427765464441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56033258973838973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5359126984126984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9022-42BC-87FE-7752CE75C9F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>一部点灯</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76527777777777772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83511904761904765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84861111111111109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84027777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9016723755792867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88136280673291423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86428571428571432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9022-42BC-87FE-7752CE75C9F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="698480928"/>
+        <c:axId val="698479288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="698480928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698479288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="698479288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>日当たり平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698480928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7601,6 +8063,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11151,6 +11653,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11706,16 +12711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11742,16 +12747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11886,16 +12891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654844</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11922,6 +12927,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A961A0E4-8787-4ACA-96F3-DF37EC7054C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11930,13 +12971,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -12265,8 +13306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7C9103-A958-4EF7-A194-C28E7984462E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
